--- a/POITest1.8/src/excel.xlsx
+++ b/POITest1.8/src/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>010-4444-4444</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
